--- a/Enviar.xlsx
+++ b/Enviar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denys Rafael\whatsapp-bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denys Rafael\whatsapp-bot\chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2C24BA-6C02-4DE6-AB01-EED5EB415B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD24D04C-DF3D-4FC5-844A-F8C6FF0F4059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="14">
   <si>
     <t>Pessoa</t>
   </si>
@@ -44,38 +44,44 @@
     <t>Mensagem</t>
   </si>
   <si>
-    <t>*NA TUPAN TEM* vai começar!</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>rafael</t>
-  </si>
-  <si>
     <t>55 87 88149274</t>
   </si>
   <si>
-    <t>denys</t>
-  </si>
-  <si>
-    <t>rafel</t>
-  </si>
-  <si>
-    <t>ffff</t>
-  </si>
-  <si>
-    <t>55 87 000000</t>
-  </si>
-  <si>
-    <t>ddd</t>
+    <t>tenho uma super notícia pra você! 💌</t>
+  </si>
+  <si>
+    <t>55 87 2020</t>
+  </si>
+  <si>
+    <t>CaminhoMidia</t>
+  </si>
+  <si>
+    <t>TipoMidia</t>
+  </si>
+  <si>
+    <t>Descricao</t>
+  </si>
+  <si>
+    <t>Denys</t>
+  </si>
+  <si>
+    <t>Passando para te avisar que o festival de ferramentas esta chegando, com ofertas que vc so encontra aqui na tupan!!!</t>
+  </si>
+  <si>
+    <t>promocoes/teste.jpg</t>
+  </si>
+  <si>
+    <t>imagem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +100,12 @@
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -445,10 +457,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,9 +468,11 @@
     <col min="1" max="1" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,459 +482,448 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>